--- a/files/Format Import Siswa.xlsx
+++ b/files/Format Import Siswa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Laki Laki</t>
   </si>
@@ -24,9 +24,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>jenis_kelamin</t>
   </si>
   <si>
-    <t>kelas_id</t>
-  </si>
-  <si>
     <t>nama_ibu</t>
   </si>
   <si>
@@ -66,13 +60,19 @@
     <t>Ade</t>
   </si>
   <si>
-    <t>murid</t>
-  </si>
-  <si>
     <t>sa@gmail.com</t>
   </si>
   <si>
-    <t>no_hp</t>
+    <t>SISWA</t>
+  </si>
+  <si>
+    <t>murid2</t>
+  </si>
+  <si>
+    <t>murid3</t>
+  </si>
+  <si>
+    <t>murid4</t>
   </si>
 </sst>
 </file>
@@ -422,113 +422,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>123456789</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>83874731480</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>1234</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>83874731480</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>1234</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>83874731480</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I4">
+        <v>1234</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
         <v>83874731480</v>
       </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2">
-        <v>83874731480</v>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>1234</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="saepulramdan244@gmail.com"/>
-    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1" display="saepulramdan244@gmail.com"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3" display="saepulramdan244@gmail.com"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5" display="saepulramdan244@gmail.com"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7" display="saepulramdan244@gmail.com"/>
+    <hyperlink ref="J5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -540,7 +621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -552,7 +633,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/Format Import Siswa.xlsx
+++ b/files/Format Import Siswa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Laki Laki</t>
   </si>
@@ -27,9 +27,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Ade</t>
   </si>
   <si>
-    <t>sa@gmail.com</t>
-  </si>
-  <si>
     <t>SISWA</t>
   </si>
   <si>
@@ -73,6 +67,9 @@
   </si>
   <si>
     <t>murid4</t>
+  </si>
+  <si>
+    <t>nisn</t>
   </si>
 </sst>
 </file>
@@ -96,15 +93,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,14 +115,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,51 +444,51 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -477,139 +496,135 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2017310023</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1">
+        <v>83874731480</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1">
-        <v>83874731480</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
         <v>1234</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>2017310024</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="1">
+        <v>83874731480</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1">
-        <v>83874731480</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
         <v>1234</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>2017310025</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="1">
+        <v>83874731480</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
-        <v>83874731480</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
         <v>1234</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>2017310026</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="1">
+        <v>83874731480</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1">
-        <v>83874731480</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
         <v>1234</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="saepulramdan244@gmail.com"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3" display="saepulramdan244@gmail.com"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5" display="saepulramdan244@gmail.com"/>
-    <hyperlink ref="J4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7" display="saepulramdan244@gmail.com"/>
-    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="H2" r:id="rId1" display="saepulramdan244@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId2" display="saepulramdan244@gmail.com"/>
+    <hyperlink ref="H4" r:id="rId3" display="saepulramdan244@gmail.com"/>
+    <hyperlink ref="H5" r:id="rId4" display="saepulramdan244@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/Format Import Siswa.xlsx
+++ b/files/Format Import Siswa.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hapalan\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7902BD8-9983-4BE3-AF59-F970820BF84E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,20 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Laki Laki</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>nis</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>Ade</t>
-  </si>
-  <si>
-    <t>SISWA</t>
   </si>
   <si>
     <t>murid2</t>
@@ -75,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,6 +144,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -197,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +227,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,60 +471,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>2017310023</v>
@@ -502,30 +523,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>83874731480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1">
-        <v>83874731480</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3">
         <v>2017310024</v>
@@ -534,30 +546,21 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>83874731480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
-        <v>83874731480</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
       </c>
       <c r="B4">
         <v>2017310025</v>
@@ -566,30 +569,21 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>83874731480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="1">
-        <v>83874731480</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5">
         <v>2017310026</v>
@@ -598,57 +592,48 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
         <v>83874731480</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5">
-        <v>1234</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="saepulramdan244@gmail.com"/>
-    <hyperlink ref="H3" r:id="rId2" display="saepulramdan244@gmail.com"/>
-    <hyperlink ref="H4" r:id="rId3" display="saepulramdan244@gmail.com"/>
-    <hyperlink ref="H5" r:id="rId4" display="saepulramdan244@gmail.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="saepulramdan244@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" display="saepulramdan244@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" display="saepulramdan244@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" display="saepulramdan244@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
